--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,6 +58,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -67,88 +70,97 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
@@ -157,130 +169,142 @@
     <t>sure</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>staff</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hands</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>businesses</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>delivery</t>
+    <t>also</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>employees</t>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>stay</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>people</t>
@@ -644,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5862068965517241</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4965753424657534</v>
+        <v>0.4828767123287671</v>
       </c>
       <c r="C4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.09883720930232558</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,25 +987,25 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,25 +1013,25 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8440366972477065</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,25 +1039,25 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.84251968503937</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,25 +1065,25 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1091,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,25 +1117,25 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,25 +1143,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1169,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,25 +1195,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.76875</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,25 +1221,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L17">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1249,25 +1273,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6491228070175439</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1275,25 +1299,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6437768240343348</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L20">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M20">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,13 +1325,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6078431372549019</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,22 +1351,22 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6043956043956044</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>36</v>
@@ -1353,13 +1377,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5985915492957746</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1379,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5957446808510638</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,25 +1429,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.6126760563380281</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,25 +1455,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.53125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,25 +1481,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5274390243902439</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L27">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M27">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,25 +1507,25 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.46875</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L28">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>153</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,25 +1533,25 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4545454545454545</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,25 +1559,25 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4411764705882353</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,25 +1585,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4251968503937008</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L31">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>219</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1587,13 +1611,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1613,13 +1637,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.36</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1639,25 +1663,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3095238095238095</v>
+        <v>0.4151436031331593</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1665,13 +1689,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.296875</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1683,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1691,13 +1715,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.288135593220339</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1709,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1717,13 +1741,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.2765957446808511</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1735,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1743,25 +1767,25 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2413793103448276</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38">
         <v>15</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1769,25 +1793,25 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.2347417840375587</v>
+        <v>0.328125</v>
       </c>
       <c r="L39">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>163</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1795,25 +1819,25 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2313253012048193</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L40">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>319</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1821,25 +1845,25 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2291666666666667</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1847,25 +1871,25 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2083333333333333</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42">
         <v>16</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1873,13 +1897,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.1978021978021978</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1891,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1899,25 +1923,25 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.1971830985915493</v>
+        <v>0.2465116279069768</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1925,13 +1949,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.1710526315789474</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1943,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1951,25 +1975,25 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.1708860759493671</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>131</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1977,25 +2001,25 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.1604938271604938</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2003,25 +2027,25 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.1582278481012658</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>133</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2029,13 +2053,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.1530612244897959</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2047,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2055,13 +2079,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1468531468531468</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2073,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2081,13 +2105,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1386861313868613</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2099,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2107,25 +2131,25 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1355932203389831</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L52">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>357</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2133,25 +2157,25 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1297709923664122</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N53">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2159,25 +2183,25 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1261261261261261</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2185,25 +2209,25 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1230769230769231</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2211,25 +2235,25 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1164383561643836</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2237,13 +2261,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1150442477876106</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2255,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2263,25 +2287,25 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1102449888641425</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L58">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>799</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2289,25 +2313,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1101694915254237</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2315,25 +2339,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1089887640449438</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="L60">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>793</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2341,25 +2365,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.107981220657277</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N61">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>190</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2367,25 +2391,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.09876543209876543</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N62">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>292</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2393,25 +2417,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.09774436090225563</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>120</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2419,13 +2443,13 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.09565217391304348</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2437,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>208</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2445,25 +2469,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.09328599096191091</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L65">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>2809</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2471,25 +2495,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.09274004683840749</v>
+        <v>0.1118568232662192</v>
       </c>
       <c r="L66">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="M66">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1937</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2497,25 +2521,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.09248554913294797</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L67">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>314</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2523,25 +2547,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.08695652173913043</v>
+        <v>0.1088825214899714</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>168</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2549,25 +2573,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.0847457627118644</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L69">
         <v>20</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2575,13 +2599,13 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.08230452674897119</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2593,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>446</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2601,25 +2625,25 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.06646058732612056</v>
+        <v>0.1040597293513766</v>
       </c>
       <c r="L71">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="M71">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="N71">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>604</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2627,25 +2651,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.06188925081433225</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>288</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2653,25 +2677,25 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.06015037593984962</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2679,25 +2703,25 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.05276816608996539</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L74">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="N74">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1095</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2705,25 +2729,25 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.05214368482039398</v>
+        <v>0.1</v>
       </c>
       <c r="L75">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>818</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2731,25 +2755,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.04770318021201413</v>
+        <v>0.09623430962343096</v>
       </c>
       <c r="L76">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>539</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2757,25 +2781,25 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.0444305381727159</v>
+        <v>0.09322974472807991</v>
       </c>
       <c r="L77">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="M77">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>3054</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2783,25 +2807,25 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.02941176470588235</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>528</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2809,25 +2833,233 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.01975051975051975</v>
+        <v>0.08153846153846153</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N79">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>943</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="L80">
+        <v>38</v>
+      </c>
+      <c r="M80">
+        <v>38</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.07231040564373897</v>
+      </c>
+      <c r="L81">
+        <v>41</v>
+      </c>
+      <c r="M81">
+        <v>41</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.06920415224913495</v>
+      </c>
+      <c r="L82">
+        <v>60</v>
+      </c>
+      <c r="M82">
+        <v>60</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="L83">
+        <v>165</v>
+      </c>
+      <c r="M83">
+        <v>165</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.04995693367786391</v>
+      </c>
+      <c r="L84">
+        <v>58</v>
+      </c>
+      <c r="M84">
+        <v>58</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>13</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.03302752293577982</v>
+      </c>
+      <c r="L86">
+        <v>18</v>
+      </c>
+      <c r="M86">
+        <v>18</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.02789256198347108</v>
+      </c>
+      <c r="L87">
+        <v>27</v>
+      </c>
+      <c r="M87">
+        <v>27</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
